--- a/HaigerlochResults_ENDF8.xlsx
+++ b/HaigerlochResults_ENDF8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickpark/haigerloch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC308ED1-0489-3346-BB92-13B619FF0642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC67CE5-4E9E-7645-83D9-DE63B26BFD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="19200" xr2:uid="{DC12915E-B1A7-564D-949D-4967E0B731EC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="18740" xr2:uid="{DC12915E-B1A7-564D-949D-4967E0B731EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
-  <si>
-    <t>Core Number</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
   <si>
     <t>-</t>
   </si>
@@ -108,9 +105,6 @@
     <t>U-235 at%</t>
   </si>
   <si>
-    <t>B-10 at%</t>
-  </si>
-  <si>
     <t>Differences from Pesic paper</t>
   </si>
   <si>
@@ -133,13 +127,22 @@
   </si>
   <si>
     <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Core</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -165,6 +168,19 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -219,10 +235,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -233,6 +248,16 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80523560-47DA-4149-838D-4182D0CCAB92}">
-  <dimension ref="A3:V12"/>
+  <dimension ref="A3:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -558,131 +583,130 @@
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="P9" s="9" t="s">
         <v>16</v>
       </c>
       <c r="Q9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9" s="10"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="O10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="T10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="S9" s="11"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="U10" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
         <v>0</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="R10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="S10" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="T10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="U10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="V10" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -690,41 +714,443 @@
       <c r="C11">
         <v>663</v>
       </c>
-      <c r="D11" s="3">
-        <v>5</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3">
+      <c r="D11" s="2">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2">
         <v>164</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>62</v>
       </c>
-      <c r="I11" s="3">
-        <v>9</v>
-      </c>
-      <c r="J11" s="3">
-        <v>8</v>
-      </c>
-      <c r="K11" s="3">
+      <c r="I11" s="2">
+        <v>8</v>
+      </c>
+      <c r="J11" s="2">
+        <v>9</v>
+      </c>
+      <c r="K11" s="2">
         <v>5.5</v>
       </c>
+      <c r="N11" s="15">
+        <v>19.05</v>
+      </c>
       <c r="O11">
-        <v>19.05</v>
-      </c>
-      <c r="P11">
         <v>96.8</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>2</v>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>1</v>
       </c>
       <c r="B12">
         <v>1</v>
+      </c>
+      <c r="C12" s="12">
+        <v>663</v>
+      </c>
+      <c r="D12" s="13">
+        <v>5</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13">
+        <v>164</v>
+      </c>
+      <c r="H12" s="13">
+        <v>62</v>
+      </c>
+      <c r="I12" s="13">
+        <v>8</v>
+      </c>
+      <c r="J12" s="13">
+        <v>9</v>
+      </c>
+      <c r="K12" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="14">
+        <v>18.8</v>
+      </c>
+      <c r="O12" s="12">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="12">
+        <v>663</v>
+      </c>
+      <c r="D13" s="13">
+        <v>5</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13">
+        <v>164</v>
+      </c>
+      <c r="H13" s="13">
+        <v>62</v>
+      </c>
+      <c r="I13" s="13">
+        <v>8</v>
+      </c>
+      <c r="J13" s="13">
+        <v>9</v>
+      </c>
+      <c r="K13" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="14">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="O13" s="12">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" s="12">
+        <v>663</v>
+      </c>
+      <c r="D14" s="13">
+        <v>5</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13">
+        <v>164</v>
+      </c>
+      <c r="H14" s="13">
+        <v>62</v>
+      </c>
+      <c r="I14" s="13">
+        <v>8</v>
+      </c>
+      <c r="J14" s="13">
+        <v>9</v>
+      </c>
+      <c r="K14" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="14">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="O14" s="12">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" s="12">
+        <v>663</v>
+      </c>
+      <c r="D15" s="13">
+        <v>5</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13">
+        <v>164</v>
+      </c>
+      <c r="H15" s="13">
+        <v>62</v>
+      </c>
+      <c r="I15" s="13">
+        <v>8</v>
+      </c>
+      <c r="J15" s="13">
+        <v>9</v>
+      </c>
+      <c r="K15" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="14">
+        <v>18.95</v>
+      </c>
+      <c r="O15" s="12">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" s="12">
+        <v>663</v>
+      </c>
+      <c r="D16" s="13">
+        <v>5</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13">
+        <v>164</v>
+      </c>
+      <c r="H16" s="13">
+        <v>62</v>
+      </c>
+      <c r="I16" s="13">
+        <v>8</v>
+      </c>
+      <c r="J16" s="13">
+        <v>9</v>
+      </c>
+      <c r="K16" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="14">
+        <v>19</v>
+      </c>
+      <c r="O16" s="12">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" s="12">
+        <v>663</v>
+      </c>
+      <c r="D17" s="13">
+        <v>5</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13">
+        <v>164</v>
+      </c>
+      <c r="H17" s="13">
+        <v>62</v>
+      </c>
+      <c r="I17" s="13">
+        <v>8</v>
+      </c>
+      <c r="J17" s="13">
+        <v>9</v>
+      </c>
+      <c r="K17" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="14">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="O17" s="12">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18" s="12">
+        <v>663</v>
+      </c>
+      <c r="D18" s="13">
+        <v>5</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13">
+        <v>164</v>
+      </c>
+      <c r="H18" s="13">
+        <v>62</v>
+      </c>
+      <c r="I18" s="13">
+        <v>8</v>
+      </c>
+      <c r="J18" s="13">
+        <v>9</v>
+      </c>
+      <c r="K18" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="14">
+        <v>19.149999999999999</v>
+      </c>
+      <c r="O18" s="12">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19" s="12">
+        <v>663</v>
+      </c>
+      <c r="D19" s="13">
+        <v>5</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13">
+        <v>164</v>
+      </c>
+      <c r="H19" s="13">
+        <v>62</v>
+      </c>
+      <c r="I19" s="13">
+        <v>8</v>
+      </c>
+      <c r="J19" s="13">
+        <v>9</v>
+      </c>
+      <c r="K19" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="14">
+        <v>19.2</v>
+      </c>
+      <c r="O19" s="12">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20" s="12">
+        <v>663</v>
+      </c>
+      <c r="D20" s="13">
+        <v>5</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13">
+        <v>164</v>
+      </c>
+      <c r="H20" s="13">
+        <v>62</v>
+      </c>
+      <c r="I20" s="13">
+        <v>8</v>
+      </c>
+      <c r="J20" s="13">
+        <v>9</v>
+      </c>
+      <c r="K20" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="14">
+        <v>19.25</v>
+      </c>
+      <c r="O20" s="12">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21" s="12">
+        <v>663</v>
+      </c>
+      <c r="D21" s="13">
+        <v>5</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13">
+        <v>164</v>
+      </c>
+      <c r="H21" s="13">
+        <v>62</v>
+      </c>
+      <c r="I21" s="13">
+        <v>8</v>
+      </c>
+      <c r="J21" s="13">
+        <v>9</v>
+      </c>
+      <c r="K21" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="14">
+        <v>19.3</v>
+      </c>
+      <c r="O21" s="12">
+        <v>96.8</v>
       </c>
     </row>
   </sheetData>

--- a/HaigerlochResults_ENDF8.xlsx
+++ b/HaigerlochResults_ENDF8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickpark/haigerloch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC67CE5-4E9E-7645-83D9-DE63B26BFD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718EB748-B49C-8946-8A83-17FBA83F768A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="18740" xr2:uid="{DC12915E-B1A7-564D-949D-4967E0B731EC}"/>
   </bookViews>
@@ -575,7 +575,7 @@
   <dimension ref="A3:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -728,10 +728,10 @@
         <v>62</v>
       </c>
       <c r="I11" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J11" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K11" s="2">
         <v>5.5</v>
@@ -767,10 +767,10 @@
         <v>62</v>
       </c>
       <c r="I12" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J12" s="13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K12" s="13">
         <v>5.5</v>
@@ -808,10 +808,10 @@
         <v>62</v>
       </c>
       <c r="I13" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J13" s="13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K13" s="13">
         <v>5.5</v>
@@ -849,10 +849,10 @@
         <v>62</v>
       </c>
       <c r="I14" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J14" s="13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K14" s="13">
         <v>5.5</v>
@@ -890,10 +890,10 @@
         <v>62</v>
       </c>
       <c r="I15" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J15" s="13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K15" s="13">
         <v>5.5</v>
@@ -931,10 +931,10 @@
         <v>62</v>
       </c>
       <c r="I16" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J16" s="13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K16" s="13">
         <v>5.5</v>
@@ -972,10 +972,10 @@
         <v>62</v>
       </c>
       <c r="I17" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J17" s="13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K17" s="13">
         <v>5.5</v>
@@ -1013,10 +1013,10 @@
         <v>62</v>
       </c>
       <c r="I18" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J18" s="13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K18" s="13">
         <v>5.5</v>
@@ -1054,10 +1054,10 @@
         <v>62</v>
       </c>
       <c r="I19" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J19" s="13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K19" s="13">
         <v>5.5</v>
@@ -1095,10 +1095,10 @@
         <v>62</v>
       </c>
       <c r="I20" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J20" s="13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K20" s="13">
         <v>5.5</v>
@@ -1136,10 +1136,10 @@
         <v>62</v>
       </c>
       <c r="I21" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J21" s="13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K21" s="13">
         <v>5.5</v>

--- a/HaigerlochResults_ENDF8.xlsx
+++ b/HaigerlochResults_ENDF8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickpark/haigerloch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718EB748-B49C-8946-8A83-17FBA83F768A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C44FE56-C1D5-1648-AB57-18A53315BEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="18740" xr2:uid="{DC12915E-B1A7-564D-949D-4967E0B731EC}"/>
   </bookViews>
@@ -575,7 +575,7 @@
   <dimension ref="A3:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -728,10 +728,10 @@
         <v>62</v>
       </c>
       <c r="I11" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J11" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K11" s="2">
         <v>5.5</v>
@@ -767,10 +767,10 @@
         <v>62</v>
       </c>
       <c r="I12" s="13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J12" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K12" s="13">
         <v>5.5</v>
@@ -808,10 +808,10 @@
         <v>62</v>
       </c>
       <c r="I13" s="13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J13" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K13" s="13">
         <v>5.5</v>
@@ -849,10 +849,10 @@
         <v>62</v>
       </c>
       <c r="I14" s="13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J14" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K14" s="13">
         <v>5.5</v>
@@ -890,10 +890,10 @@
         <v>62</v>
       </c>
       <c r="I15" s="13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J15" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K15" s="13">
         <v>5.5</v>
@@ -931,10 +931,10 @@
         <v>62</v>
       </c>
       <c r="I16" s="13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J16" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K16" s="13">
         <v>5.5</v>
@@ -972,10 +972,10 @@
         <v>62</v>
       </c>
       <c r="I17" s="13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J17" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K17" s="13">
         <v>5.5</v>
@@ -1013,10 +1013,10 @@
         <v>62</v>
       </c>
       <c r="I18" s="13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J18" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K18" s="13">
         <v>5.5</v>
@@ -1054,10 +1054,10 @@
         <v>62</v>
       </c>
       <c r="I19" s="13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J19" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K19" s="13">
         <v>5.5</v>
@@ -1095,10 +1095,10 @@
         <v>62</v>
       </c>
       <c r="I20" s="13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J20" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K20" s="13">
         <v>5.5</v>
@@ -1136,10 +1136,10 @@
         <v>62</v>
       </c>
       <c r="I21" s="13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J21" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K21" s="13">
         <v>5.5</v>

--- a/HaigerlochResults_ENDF8.xlsx
+++ b/HaigerlochResults_ENDF8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickpark/haigerloch/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MCNP6\facilities\haigerloch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C44FE56-C1D5-1648-AB57-18A53315BEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C915C1-4AEA-4A00-9605-74060B403C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="18740" xr2:uid="{DC12915E-B1A7-564D-949D-4967E0B731EC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{DC12915E-B1A7-564D-949D-4967E0B731EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="34">
   <si>
     <t>-</t>
   </si>
@@ -142,6 +142,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -172,17 +175,16 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -235,29 +237,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,18 +575,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80523560-47DA-4149-838D-4182D0CCAB92}">
-  <dimension ref="A3:U21"/>
+  <dimension ref="A3:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -594,7 +597,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -605,11 +608,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="6"/>
@@ -621,97 +625,97 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="8" t="s">
+      <c r="N9" s="8"/>
+      <c r="O9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="P9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="10" t="s">
+      <c r="Q9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="R9" s="10"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="R9" s="11"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="7" t="s">
+      <c r="G10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O10" s="8" t="s">
+      <c r="O10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="P10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Q10" s="10" t="s">
+      <c r="Q10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="R10" s="10" t="s">
+      <c r="R10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="S10" s="10" t="s">
+      <c r="S10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="T10" s="10" t="s">
+      <c r="T10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="U10" s="10" t="s">
+      <c r="U10" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>0</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>663</v>
       </c>
       <c r="D11" s="2">
@@ -736,425 +740,1571 @@
       <c r="K11" s="2">
         <v>5.5</v>
       </c>
-      <c r="N11" s="15">
+      <c r="L11" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N11" s="14">
         <v>19.05</v>
       </c>
-      <c r="O11">
-        <v>96.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="12">
-        <v>663</v>
-      </c>
-      <c r="D12" s="13">
-        <v>5</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13">
-        <v>164</v>
-      </c>
-      <c r="H12" s="13">
-        <v>62</v>
-      </c>
-      <c r="I12" s="13">
-        <v>8</v>
-      </c>
-      <c r="J12" s="13">
-        <v>9</v>
-      </c>
-      <c r="K12" s="13">
-        <v>5.5</v>
-      </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="14">
+      <c r="O11" s="2">
+        <v>96.8</v>
+      </c>
+      <c r="P11" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="15">
+        <v>0.87590000000000001</v>
+      </c>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>663</v>
+      </c>
+      <c r="D12" s="4">
+        <v>5</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4">
+        <v>164</v>
+      </c>
+      <c r="H12" s="4">
+        <v>62</v>
+      </c>
+      <c r="I12" s="4">
+        <v>8</v>
+      </c>
+      <c r="J12" s="4">
+        <v>9</v>
+      </c>
+      <c r="K12" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="L12" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N12" s="18">
+        <v>18</v>
+      </c>
+      <c r="O12" s="4">
+        <v>96.8</v>
+      </c>
+      <c r="P12" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="Q12" s="17">
+        <v>0.95672999999999997</v>
+      </c>
+      <c r="R12" s="2">
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>663</v>
+      </c>
+      <c r="D13" s="4">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4">
+        <v>164</v>
+      </c>
+      <c r="H13" s="4">
+        <v>62</v>
+      </c>
+      <c r="I13" s="4">
+        <v>8</v>
+      </c>
+      <c r="J13" s="4">
+        <v>9</v>
+      </c>
+      <c r="K13" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="L13" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N13" s="18">
+        <v>18.05</v>
+      </c>
+      <c r="O13" s="4">
+        <v>96.8</v>
+      </c>
+      <c r="P13" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="Q13" s="17">
+        <v>0.95696999999999999</v>
+      </c>
+      <c r="R13" s="2">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4">
+        <v>663</v>
+      </c>
+      <c r="D14" s="4">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4">
+        <v>164</v>
+      </c>
+      <c r="H14" s="4">
+        <v>62</v>
+      </c>
+      <c r="I14" s="4">
+        <v>8</v>
+      </c>
+      <c r="J14" s="4">
+        <v>9</v>
+      </c>
+      <c r="K14" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="L14" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N14" s="18">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="O14" s="4">
+        <v>96.8</v>
+      </c>
+      <c r="P14" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="Q14" s="17">
+        <v>0.95687999999999995</v>
+      </c>
+      <c r="R14" s="2">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2">
+        <v>4</v>
+      </c>
+      <c r="C15" s="4">
+        <v>663</v>
+      </c>
+      <c r="D15" s="4">
+        <v>5</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4">
+        <v>164</v>
+      </c>
+      <c r="H15" s="4">
+        <v>62</v>
+      </c>
+      <c r="I15" s="4">
+        <v>8</v>
+      </c>
+      <c r="J15" s="4">
+        <v>9</v>
+      </c>
+      <c r="K15" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="L15" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N15" s="18">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="O15" s="4">
+        <v>96.8</v>
+      </c>
+      <c r="P15" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="Q15" s="17">
+        <v>0.95706000000000002</v>
+      </c>
+      <c r="R15" s="2">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2">
+        <v>5</v>
+      </c>
+      <c r="C16" s="4">
+        <v>663</v>
+      </c>
+      <c r="D16" s="4">
+        <v>5</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4">
+        <v>164</v>
+      </c>
+      <c r="H16" s="4">
+        <v>62</v>
+      </c>
+      <c r="I16" s="4">
+        <v>8</v>
+      </c>
+      <c r="J16" s="4">
+        <v>9</v>
+      </c>
+      <c r="K16" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="L16" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N16" s="18">
+        <v>18.2</v>
+      </c>
+      <c r="O16" s="4">
+        <v>96.8</v>
+      </c>
+      <c r="P16" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="Q16" s="17">
+        <v>0.95679000000000003</v>
+      </c>
+      <c r="R16" s="2">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2">
+        <v>6</v>
+      </c>
+      <c r="C17" s="4">
+        <v>663</v>
+      </c>
+      <c r="D17" s="4">
+        <v>5</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4">
+        <v>164</v>
+      </c>
+      <c r="H17" s="4">
+        <v>62</v>
+      </c>
+      <c r="I17" s="4">
+        <v>8</v>
+      </c>
+      <c r="J17" s="4">
+        <v>9</v>
+      </c>
+      <c r="K17" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="L17" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N17" s="18">
+        <v>18.25</v>
+      </c>
+      <c r="O17" s="4">
+        <v>96.8</v>
+      </c>
+      <c r="P17" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="Q17" s="17">
+        <v>0.95723000000000003</v>
+      </c>
+      <c r="R17" s="2">
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2">
+        <v>7</v>
+      </c>
+      <c r="C18" s="4">
+        <v>663</v>
+      </c>
+      <c r="D18" s="4">
+        <v>5</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4">
+        <v>164</v>
+      </c>
+      <c r="H18" s="4">
+        <v>62</v>
+      </c>
+      <c r="I18" s="4">
+        <v>8</v>
+      </c>
+      <c r="J18" s="4">
+        <v>9</v>
+      </c>
+      <c r="K18" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="L18" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N18" s="18">
+        <v>18.3</v>
+      </c>
+      <c r="O18" s="4">
+        <v>96.8</v>
+      </c>
+      <c r="P18" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="Q18" s="17">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="R18" s="2">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2">
+        <v>8</v>
+      </c>
+      <c r="C19" s="4">
+        <v>663</v>
+      </c>
+      <c r="D19" s="4">
+        <v>5</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4">
+        <v>164</v>
+      </c>
+      <c r="H19" s="4">
+        <v>62</v>
+      </c>
+      <c r="I19" s="4">
+        <v>8</v>
+      </c>
+      <c r="J19" s="4">
+        <v>9</v>
+      </c>
+      <c r="K19" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="L19" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N19" s="18">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="O19" s="4">
+        <v>96.8</v>
+      </c>
+      <c r="P19" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="Q19" s="17">
+        <v>0.95720000000000005</v>
+      </c>
+      <c r="R19" s="2">
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2">
+        <v>9</v>
+      </c>
+      <c r="C20" s="4">
+        <v>663</v>
+      </c>
+      <c r="D20" s="4">
+        <v>5</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4">
+        <v>164</v>
+      </c>
+      <c r="H20" s="4">
+        <v>62</v>
+      </c>
+      <c r="I20" s="4">
+        <v>8</v>
+      </c>
+      <c r="J20" s="4">
+        <v>9</v>
+      </c>
+      <c r="K20" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="L20" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N20" s="18">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="O20" s="4">
+        <v>96.8</v>
+      </c>
+      <c r="P20" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="Q20" s="17">
+        <v>0.95725000000000005</v>
+      </c>
+      <c r="R20" s="2">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2">
+        <v>10</v>
+      </c>
+      <c r="C21" s="4">
+        <v>663</v>
+      </c>
+      <c r="D21" s="4">
+        <v>5</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4">
+        <v>164</v>
+      </c>
+      <c r="H21" s="4">
+        <v>62</v>
+      </c>
+      <c r="I21" s="4">
+        <v>8</v>
+      </c>
+      <c r="J21" s="4">
+        <v>9</v>
+      </c>
+      <c r="K21" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="L21" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N21" s="18">
+        <v>18.45</v>
+      </c>
+      <c r="O21" s="4">
+        <v>96.8</v>
+      </c>
+      <c r="P21" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="Q21" s="17">
+        <v>0.95759000000000005</v>
+      </c>
+      <c r="R21" s="2">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2">
+        <v>11</v>
+      </c>
+      <c r="C22" s="4">
+        <v>663</v>
+      </c>
+      <c r="D22" s="4">
+        <v>5</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4">
+        <v>164</v>
+      </c>
+      <c r="H22" s="4">
+        <v>62</v>
+      </c>
+      <c r="I22" s="4">
+        <v>8</v>
+      </c>
+      <c r="J22" s="4">
+        <v>9</v>
+      </c>
+      <c r="K22" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="L22" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N22" s="18">
+        <v>18.5</v>
+      </c>
+      <c r="O22" s="4">
+        <v>96.8</v>
+      </c>
+      <c r="P22" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="Q22" s="17">
+        <v>0.95752999999999999</v>
+      </c>
+      <c r="R22" s="2">
+        <v>1.3999999999999999E-4</v>
+      </c>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2">
+        <v>12</v>
+      </c>
+      <c r="C23" s="4">
+        <v>663</v>
+      </c>
+      <c r="D23" s="4">
+        <v>5</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4">
+        <v>164</v>
+      </c>
+      <c r="H23" s="4">
+        <v>62</v>
+      </c>
+      <c r="I23" s="4">
+        <v>8</v>
+      </c>
+      <c r="J23" s="4">
+        <v>9</v>
+      </c>
+      <c r="K23" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="L23" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N23" s="18">
+        <v>18.55</v>
+      </c>
+      <c r="O23" s="4">
+        <v>96.8</v>
+      </c>
+      <c r="P23" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="Q23" s="17">
+        <v>0.95767000000000002</v>
+      </c>
+      <c r="R23" s="2">
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2">
+        <v>13</v>
+      </c>
+      <c r="C24" s="4">
+        <v>663</v>
+      </c>
+      <c r="D24" s="4">
+        <v>5</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4">
+        <v>164</v>
+      </c>
+      <c r="H24" s="4">
+        <v>62</v>
+      </c>
+      <c r="I24" s="4">
+        <v>8</v>
+      </c>
+      <c r="J24" s="4">
+        <v>9</v>
+      </c>
+      <c r="K24" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="L24" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N24" s="18">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="O24" s="4">
+        <v>96.8</v>
+      </c>
+      <c r="P24" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="Q24" s="17">
+        <v>0.95765999999999996</v>
+      </c>
+      <c r="R24" s="2">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2">
+        <v>14</v>
+      </c>
+      <c r="C25" s="4">
+        <v>663</v>
+      </c>
+      <c r="D25" s="4">
+        <v>5</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4">
+        <v>164</v>
+      </c>
+      <c r="H25" s="4">
+        <v>62</v>
+      </c>
+      <c r="I25" s="4">
+        <v>8</v>
+      </c>
+      <c r="J25" s="4">
+        <v>9</v>
+      </c>
+      <c r="K25" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="L25" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N25" s="18">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="O25" s="4">
+        <v>96.8</v>
+      </c>
+      <c r="P25" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="Q25" s="17">
+        <v>0.95777000000000001</v>
+      </c>
+      <c r="R25" s="2">
+        <v>1.3999999999999999E-4</v>
+      </c>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2">
+        <v>15</v>
+      </c>
+      <c r="C26" s="4">
+        <v>663</v>
+      </c>
+      <c r="D26" s="4">
+        <v>5</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4">
+        <v>164</v>
+      </c>
+      <c r="H26" s="4">
+        <v>62</v>
+      </c>
+      <c r="I26" s="4">
+        <v>8</v>
+      </c>
+      <c r="J26" s="4">
+        <v>9</v>
+      </c>
+      <c r="K26" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="L26" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N26" s="18">
+        <v>18.7</v>
+      </c>
+      <c r="O26" s="4">
+        <v>96.8</v>
+      </c>
+      <c r="P26" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="Q26" s="17">
+        <v>0.95777999999999996</v>
+      </c>
+      <c r="R26" s="2">
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2">
+        <v>16</v>
+      </c>
+      <c r="C27" s="4">
+        <v>663</v>
+      </c>
+      <c r="D27" s="4">
+        <v>5</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4">
+        <v>164</v>
+      </c>
+      <c r="H27" s="4">
+        <v>62</v>
+      </c>
+      <c r="I27" s="4">
+        <v>8</v>
+      </c>
+      <c r="J27" s="4">
+        <v>9</v>
+      </c>
+      <c r="K27" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="L27" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N27" s="18">
+        <v>18.75</v>
+      </c>
+      <c r="O27" s="4">
+        <v>96.8</v>
+      </c>
+      <c r="P27" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="Q27" s="17">
+        <v>0.95796000000000003</v>
+      </c>
+      <c r="R27" s="2">
+        <v>1.3999999999999999E-4</v>
+      </c>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2">
+        <v>17</v>
+      </c>
+      <c r="C28" s="4">
+        <v>663</v>
+      </c>
+      <c r="D28" s="4">
+        <v>5</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4">
+        <v>164</v>
+      </c>
+      <c r="H28" s="4">
+        <v>62</v>
+      </c>
+      <c r="I28" s="4">
+        <v>8</v>
+      </c>
+      <c r="J28" s="4">
+        <v>9</v>
+      </c>
+      <c r="K28" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="L28" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N28" s="18">
         <v>18.8</v>
       </c>
-      <c r="O12" s="12">
-        <v>96.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" s="12">
-        <v>663</v>
-      </c>
-      <c r="D13" s="13">
-        <v>5</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13">
-        <v>164</v>
-      </c>
-      <c r="H13" s="13">
-        <v>62</v>
-      </c>
-      <c r="I13" s="13">
-        <v>8</v>
-      </c>
-      <c r="J13" s="13">
-        <v>9</v>
-      </c>
-      <c r="K13" s="13">
-        <v>5.5</v>
-      </c>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="14">
+      <c r="O28" s="4">
+        <v>96.8</v>
+      </c>
+      <c r="P28" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="Q28" s="17">
+        <v>0.95804</v>
+      </c>
+      <c r="R28" s="2">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2">
+        <v>18</v>
+      </c>
+      <c r="C29" s="4">
+        <v>663</v>
+      </c>
+      <c r="D29" s="4">
+        <v>5</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4">
+        <v>164</v>
+      </c>
+      <c r="H29" s="4">
+        <v>62</v>
+      </c>
+      <c r="I29" s="4">
+        <v>8</v>
+      </c>
+      <c r="J29" s="4">
+        <v>9</v>
+      </c>
+      <c r="K29" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="L29" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N29" s="18">
         <v>18.850000000000001</v>
       </c>
-      <c r="O13" s="12">
-        <v>96.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14" s="12">
-        <v>663</v>
-      </c>
-      <c r="D14" s="13">
-        <v>5</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13">
-        <v>164</v>
-      </c>
-      <c r="H14" s="13">
-        <v>62</v>
-      </c>
-      <c r="I14" s="13">
-        <v>8</v>
-      </c>
-      <c r="J14" s="13">
-        <v>9</v>
-      </c>
-      <c r="K14" s="13">
-        <v>5.5</v>
-      </c>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="14">
+      <c r="O29" s="4">
+        <v>96.8</v>
+      </c>
+      <c r="P29" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="Q29" s="17">
+        <v>0.95789999999999997</v>
+      </c>
+      <c r="R29" s="2">
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2">
+        <v>19</v>
+      </c>
+      <c r="C30" s="4">
+        <v>663</v>
+      </c>
+      <c r="D30" s="4">
+        <v>5</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4">
+        <v>164</v>
+      </c>
+      <c r="H30" s="4">
+        <v>62</v>
+      </c>
+      <c r="I30" s="4">
+        <v>8</v>
+      </c>
+      <c r="J30" s="4">
+        <v>9</v>
+      </c>
+      <c r="K30" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="L30" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N30" s="18">
         <v>18.899999999999999</v>
       </c>
-      <c r="O14" s="12">
-        <v>96.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15" s="12">
-        <v>663</v>
-      </c>
-      <c r="D15" s="13">
-        <v>5</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13">
-        <v>164</v>
-      </c>
-      <c r="H15" s="13">
-        <v>62</v>
-      </c>
-      <c r="I15" s="13">
-        <v>8</v>
-      </c>
-      <c r="J15" s="13">
-        <v>9</v>
-      </c>
-      <c r="K15" s="13">
-        <v>5.5</v>
-      </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="14">
+      <c r="O30" s="4">
+        <v>96.8</v>
+      </c>
+      <c r="P30" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="Q30" s="17">
+        <v>0.95742000000000005</v>
+      </c>
+      <c r="R30" s="2">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2">
+        <v>20</v>
+      </c>
+      <c r="C31" s="4">
+        <v>663</v>
+      </c>
+      <c r="D31" s="4">
+        <v>5</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4">
+        <v>164</v>
+      </c>
+      <c r="H31" s="4">
+        <v>62</v>
+      </c>
+      <c r="I31" s="4">
+        <v>8</v>
+      </c>
+      <c r="J31" s="4">
+        <v>9</v>
+      </c>
+      <c r="K31" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="L31" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N31" s="18">
         <v>18.95</v>
       </c>
-      <c r="O15" s="12">
-        <v>96.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="C16" s="12">
-        <v>663</v>
-      </c>
-      <c r="D16" s="13">
-        <v>5</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13">
-        <v>164</v>
-      </c>
-      <c r="H16" s="13">
-        <v>62</v>
-      </c>
-      <c r="I16" s="13">
-        <v>8</v>
-      </c>
-      <c r="J16" s="13">
-        <v>9</v>
-      </c>
-      <c r="K16" s="13">
-        <v>5.5</v>
-      </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="14">
+      <c r="O31" s="4">
+        <v>96.8</v>
+      </c>
+      <c r="P31" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="Q31" s="17">
+        <v>0.95786000000000004</v>
+      </c>
+      <c r="R31" s="2">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2">
+        <v>21</v>
+      </c>
+      <c r="C32" s="4">
+        <v>663</v>
+      </c>
+      <c r="D32" s="4">
+        <v>5</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4">
+        <v>164</v>
+      </c>
+      <c r="H32" s="4">
+        <v>62</v>
+      </c>
+      <c r="I32" s="4">
+        <v>8</v>
+      </c>
+      <c r="J32" s="4">
+        <v>9</v>
+      </c>
+      <c r="K32" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="L32" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N32" s="18">
         <v>19</v>
       </c>
-      <c r="O16" s="12">
-        <v>96.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17">
-        <v>6</v>
-      </c>
-      <c r="C17" s="12">
-        <v>663</v>
-      </c>
-      <c r="D17" s="13">
-        <v>5</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13">
-        <v>164</v>
-      </c>
-      <c r="H17" s="13">
-        <v>62</v>
-      </c>
-      <c r="I17" s="13">
-        <v>8</v>
-      </c>
-      <c r="J17" s="13">
-        <v>9</v>
-      </c>
-      <c r="K17" s="13">
-        <v>5.5</v>
-      </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="14">
+      <c r="O32" s="4">
+        <v>96.8</v>
+      </c>
+      <c r="P32" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="Q32" s="17">
+        <v>0.95809999999999995</v>
+      </c>
+      <c r="R32" s="2">
+        <v>1.3999999999999999E-4</v>
+      </c>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2">
+        <v>22</v>
+      </c>
+      <c r="C33" s="4">
+        <v>663</v>
+      </c>
+      <c r="D33" s="4">
+        <v>5</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4">
+        <v>164</v>
+      </c>
+      <c r="H33" s="4">
+        <v>62</v>
+      </c>
+      <c r="I33" s="4">
+        <v>8</v>
+      </c>
+      <c r="J33" s="4">
+        <v>9</v>
+      </c>
+      <c r="K33" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="L33" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N33" s="18">
+        <v>19.05</v>
+      </c>
+      <c r="O33" s="4">
+        <v>96.8</v>
+      </c>
+      <c r="P33" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="Q33" s="17">
+        <v>0.95791000000000004</v>
+      </c>
+      <c r="R33" s="2">
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2">
+        <v>23</v>
+      </c>
+      <c r="C34" s="4">
+        <v>663</v>
+      </c>
+      <c r="D34" s="4">
+        <v>5</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4">
+        <v>164</v>
+      </c>
+      <c r="H34" s="4">
+        <v>62</v>
+      </c>
+      <c r="I34" s="4">
+        <v>8</v>
+      </c>
+      <c r="J34" s="4">
+        <v>9</v>
+      </c>
+      <c r="K34" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="L34" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N34" s="18">
         <v>19.100000000000001</v>
       </c>
-      <c r="O17" s="12">
-        <v>96.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>7</v>
-      </c>
-      <c r="C18" s="12">
-        <v>663</v>
-      </c>
-      <c r="D18" s="13">
-        <v>5</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13">
-        <v>164</v>
-      </c>
-      <c r="H18" s="13">
-        <v>62</v>
-      </c>
-      <c r="I18" s="13">
-        <v>8</v>
-      </c>
-      <c r="J18" s="13">
-        <v>9</v>
-      </c>
-      <c r="K18" s="13">
-        <v>5.5</v>
-      </c>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="14">
+      <c r="O34" s="4">
+        <v>96.8</v>
+      </c>
+      <c r="P34" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="Q34" s="17">
+        <v>0.95825000000000005</v>
+      </c>
+      <c r="R34" s="2">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2">
+        <v>24</v>
+      </c>
+      <c r="C35" s="4">
+        <v>663</v>
+      </c>
+      <c r="D35" s="4">
+        <v>5</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4">
+        <v>164</v>
+      </c>
+      <c r="H35" s="4">
+        <v>62</v>
+      </c>
+      <c r="I35" s="4">
+        <v>8</v>
+      </c>
+      <c r="J35" s="4">
+        <v>9</v>
+      </c>
+      <c r="K35" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="L35" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N35" s="18">
         <v>19.149999999999999</v>
       </c>
-      <c r="O18" s="12">
-        <v>96.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>8</v>
-      </c>
-      <c r="C19" s="12">
-        <v>663</v>
-      </c>
-      <c r="D19" s="13">
-        <v>5</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13">
-        <v>164</v>
-      </c>
-      <c r="H19" s="13">
-        <v>62</v>
-      </c>
-      <c r="I19" s="13">
-        <v>8</v>
-      </c>
-      <c r="J19" s="13">
-        <v>9</v>
-      </c>
-      <c r="K19" s="13">
-        <v>5.5</v>
-      </c>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="14">
+      <c r="O35" s="4">
+        <v>96.8</v>
+      </c>
+      <c r="P35" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="Q35" s="17">
+        <v>0.95789999999999997</v>
+      </c>
+      <c r="R35" s="2">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="2">
+        <v>25</v>
+      </c>
+      <c r="C36" s="4">
+        <v>663</v>
+      </c>
+      <c r="D36" s="4">
+        <v>5</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4">
+        <v>164</v>
+      </c>
+      <c r="H36" s="4">
+        <v>62</v>
+      </c>
+      <c r="I36" s="4">
+        <v>8</v>
+      </c>
+      <c r="J36" s="4">
+        <v>9</v>
+      </c>
+      <c r="K36" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="L36" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N36" s="18">
         <v>19.2</v>
       </c>
-      <c r="O19" s="12">
-        <v>96.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>9</v>
-      </c>
-      <c r="C20" s="12">
-        <v>663</v>
-      </c>
-      <c r="D20" s="13">
-        <v>5</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13">
-        <v>164</v>
-      </c>
-      <c r="H20" s="13">
-        <v>62</v>
-      </c>
-      <c r="I20" s="13">
-        <v>8</v>
-      </c>
-      <c r="J20" s="13">
-        <v>9</v>
-      </c>
-      <c r="K20" s="13">
-        <v>5.5</v>
-      </c>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="14">
+      <c r="O36" s="4">
+        <v>96.8</v>
+      </c>
+      <c r="P36" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="Q36" s="17">
+        <v>0.95848999999999995</v>
+      </c>
+      <c r="R36" s="2">
+        <v>1.3999999999999999E-4</v>
+      </c>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="2">
+        <v>26</v>
+      </c>
+      <c r="C37" s="4">
+        <v>663</v>
+      </c>
+      <c r="D37" s="4">
+        <v>5</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4">
+        <v>164</v>
+      </c>
+      <c r="H37" s="4">
+        <v>62</v>
+      </c>
+      <c r="I37" s="4">
+        <v>8</v>
+      </c>
+      <c r="J37" s="4">
+        <v>9</v>
+      </c>
+      <c r="K37" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="L37" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N37" s="18">
         <v>19.25</v>
       </c>
-      <c r="O20" s="12">
-        <v>96.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21">
-        <v>10</v>
-      </c>
-      <c r="C21" s="12">
-        <v>663</v>
-      </c>
-      <c r="D21" s="13">
-        <v>5</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13">
-        <v>164</v>
-      </c>
-      <c r="H21" s="13">
-        <v>62</v>
-      </c>
-      <c r="I21" s="13">
-        <v>8</v>
-      </c>
-      <c r="J21" s="13">
-        <v>9</v>
-      </c>
-      <c r="K21" s="13">
-        <v>5.5</v>
-      </c>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="14">
+      <c r="O37" s="4">
+        <v>96.8</v>
+      </c>
+      <c r="P37" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="Q37" s="17">
+        <v>0.95804999999999996</v>
+      </c>
+      <c r="R37" s="2">
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="2">
+        <v>27</v>
+      </c>
+      <c r="C38" s="4">
+        <v>663</v>
+      </c>
+      <c r="D38" s="4">
+        <v>5</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4">
+        <v>164</v>
+      </c>
+      <c r="H38" s="4">
+        <v>62</v>
+      </c>
+      <c r="I38" s="4">
+        <v>8</v>
+      </c>
+      <c r="J38" s="4">
+        <v>9</v>
+      </c>
+      <c r="K38" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="L38" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="M38" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N38" s="18">
         <v>19.3</v>
       </c>
-      <c r="O21" s="12">
-        <v>96.8</v>
-      </c>
+      <c r="O38" s="4">
+        <v>96.8</v>
+      </c>
+      <c r="P38" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="Q38" s="17">
+        <v>0.95796000000000003</v>
+      </c>
+      <c r="R38" s="2">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/HaigerlochResults_ENDF8.xlsx
+++ b/HaigerlochResults_ENDF8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MCNP6\facilities\haigerloch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C915C1-4AEA-4A00-9605-74060B403C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280D38D5-CCAA-4494-BAF8-A1ABA09687FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{DC12915E-B1A7-564D-949D-4967E0B731EC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="36">
   <si>
     <t>-</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Output</t>
   </si>
   <si>
-    <t>% thermal n</t>
-  </si>
-  <si>
     <t>KCODE</t>
   </si>
   <si>
@@ -136,6 +133,15 @@
   </si>
   <si>
     <t>Number</t>
+  </si>
+  <si>
+    <t>Temp C</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>% thermal fissions</t>
   </si>
 </sst>
 </file>
@@ -187,7 +193,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,8 +230,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -233,11 +245,128 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -248,19 +377,58 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -276,6 +444,1016 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$39:$P$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$39:$S$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.95840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95820000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95811999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95831999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95820000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95777999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95737000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95686000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95569000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95553999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95496999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.95491999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.95525000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.95250999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.95240999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.95238999999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.95155999999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.95087999999999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.94911999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.94911000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.94823000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-87BB-4084-821A-E52EA2C20943}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="342120191"/>
+        <c:axId val="342120607"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="342120191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="342120607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="342120607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="342120191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>526677</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>135591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>56030</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>54909</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B05D6C8-25EA-47A7-A391-B238C754DD8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -575,18 +1753,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80523560-47DA-4149-838D-4182D0CCAB92}">
-  <dimension ref="A3:U38"/>
+  <dimension ref="A3:W66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="18" max="18" width="11" style="38"/>
+    <col min="19" max="19" width="11" style="39"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -597,7 +1777,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -608,9 +1788,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
@@ -632,196 +1812,210 @@
       <c r="O9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P9" s="10" t="s">
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="S9" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="R9" s="11"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="T9" s="10"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+    </row>
+    <row r="10" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="P10" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N10" s="7" t="s">
+      <c r="Q10" s="25"/>
+      <c r="R10" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="O10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="P10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q10" s="11" t="s">
+      <c r="S10" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="R10" s="11" t="s">
+      <c r="T10" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="S10" s="11" t="s">
+      <c r="U10" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="V10" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="T10" s="11" t="s">
+      <c r="W10" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="U10" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+    </row>
+    <row r="11" spans="1:23" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="28">
         <v>0</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="28">
         <v>663</v>
       </c>
-      <c r="D11" s="2">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="D11" s="28">
+        <v>5</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28">
         <v>164</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="28">
         <v>62</v>
       </c>
-      <c r="I11" s="2">
-        <v>8</v>
-      </c>
-      <c r="J11" s="2">
-        <v>9</v>
-      </c>
-      <c r="K11" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="L11" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="M11" s="2">
+      <c r="I11" s="28">
+        <v>8</v>
+      </c>
+      <c r="J11" s="28">
+        <v>9</v>
+      </c>
+      <c r="K11" s="28">
+        <v>5.5</v>
+      </c>
+      <c r="L11" s="28">
+        <v>5.5</v>
+      </c>
+      <c r="M11" s="28">
         <v>0.71099999999999997</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N11" s="29">
         <v>19.05</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="28">
         <v>96.8</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P11" s="28">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="44">
         <v>1.8</v>
       </c>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="15">
+      <c r="S11" s="45"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="30">
         <v>0.87590000000000001</v>
       </c>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+    </row>
+    <row r="12" spans="1:23" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="19">
         <v>1</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="32">
         <v>663</v>
       </c>
-      <c r="D12" s="4">
-        <v>5</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4">
+      <c r="D12" s="32">
+        <v>5</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32">
         <v>164</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="32">
         <v>62</v>
       </c>
-      <c r="I12" s="4">
-        <v>8</v>
-      </c>
-      <c r="J12" s="4">
-        <v>9</v>
-      </c>
-      <c r="K12" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="L12" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="M12" s="2">
+      <c r="I12" s="32">
+        <v>8</v>
+      </c>
+      <c r="J12" s="32">
+        <v>9</v>
+      </c>
+      <c r="K12" s="32">
+        <v>5.5</v>
+      </c>
+      <c r="L12" s="32">
+        <v>5.5</v>
+      </c>
+      <c r="M12" s="19">
         <v>0.71099999999999997</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12" s="33">
         <v>18</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="32">
         <v>96.8</v>
       </c>
-      <c r="P12" s="14">
+      <c r="P12" s="19">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="46">
         <v>1.8</v>
       </c>
-      <c r="Q12" s="17">
+      <c r="S12" s="47">
         <v>0.95672999999999997</v>
       </c>
-      <c r="R12" s="2">
+      <c r="T12" s="19">
         <v>1.6000000000000001E-4</v>
       </c>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="2">
@@ -858,27 +2052,31 @@
       <c r="M13" s="2">
         <v>0.71099999999999997</v>
       </c>
-      <c r="N13" s="18">
+      <c r="N13" s="34">
         <v>18.05</v>
       </c>
       <c r="O13" s="4">
         <v>96.8</v>
       </c>
-      <c r="P13" s="14">
+      <c r="P13" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="48">
         <v>1.8</v>
       </c>
-      <c r="Q13" s="17">
+      <c r="S13" s="49">
         <v>0.95696999999999999</v>
       </c>
-      <c r="R13" s="2">
+      <c r="T13" s="2">
         <v>1.7000000000000001E-4</v>
       </c>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
       <c r="U13" s="2"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="2">
@@ -915,27 +2113,31 @@
       <c r="M14" s="2">
         <v>0.71099999999999997</v>
       </c>
-      <c r="N14" s="18">
+      <c r="N14" s="34">
         <v>18.100000000000001</v>
       </c>
       <c r="O14" s="4">
         <v>96.8</v>
       </c>
-      <c r="P14" s="14">
+      <c r="P14" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="48">
         <v>1.8</v>
       </c>
-      <c r="Q14" s="17">
+      <c r="S14" s="49">
         <v>0.95687999999999995</v>
       </c>
-      <c r="R14" s="2">
+      <c r="T14" s="2">
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
       <c r="U14" s="2"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="2">
@@ -972,27 +2174,31 @@
       <c r="M15" s="2">
         <v>0.71099999999999997</v>
       </c>
-      <c r="N15" s="18">
+      <c r="N15" s="34">
         <v>18.149999999999999</v>
       </c>
       <c r="O15" s="4">
         <v>96.8</v>
       </c>
-      <c r="P15" s="14">
+      <c r="P15" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="48">
         <v>1.8</v>
       </c>
-      <c r="Q15" s="17">
+      <c r="S15" s="49">
         <v>0.95706000000000002</v>
       </c>
-      <c r="R15" s="2">
+      <c r="T15" s="2">
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
       <c r="U15" s="2"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="2">
@@ -1029,27 +2235,31 @@
       <c r="M16" s="2">
         <v>0.71099999999999997</v>
       </c>
-      <c r="N16" s="18">
+      <c r="N16" s="34">
         <v>18.2</v>
       </c>
       <c r="O16" s="4">
         <v>96.8</v>
       </c>
-      <c r="P16" s="14">
+      <c r="P16" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="48">
         <v>1.8</v>
       </c>
-      <c r="Q16" s="17">
+      <c r="S16" s="49">
         <v>0.95679000000000003</v>
       </c>
-      <c r="R16" s="2">
+      <c r="T16" s="2">
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
       <c r="U16" s="2"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="2">
@@ -1086,27 +2296,31 @@
       <c r="M17" s="2">
         <v>0.71099999999999997</v>
       </c>
-      <c r="N17" s="18">
+      <c r="N17" s="34">
         <v>18.25</v>
       </c>
       <c r="O17" s="4">
         <v>96.8</v>
       </c>
-      <c r="P17" s="14">
+      <c r="P17" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="48">
         <v>1.8</v>
       </c>
-      <c r="Q17" s="17">
+      <c r="S17" s="49">
         <v>0.95723000000000003</v>
       </c>
-      <c r="R17" s="2">
+      <c r="T17" s="2">
         <v>1.6000000000000001E-4</v>
       </c>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
       <c r="U17" s="2"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="2">
@@ -1143,27 +2357,31 @@
       <c r="M18" s="2">
         <v>0.71099999999999997</v>
       </c>
-      <c r="N18" s="18">
+      <c r="N18" s="34">
         <v>18.3</v>
       </c>
       <c r="O18" s="4">
         <v>96.8</v>
       </c>
-      <c r="P18" s="14">
+      <c r="P18" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="48">
         <v>1.8</v>
       </c>
-      <c r="Q18" s="17">
+      <c r="S18" s="49">
         <v>0.95699999999999996</v>
       </c>
-      <c r="R18" s="2">
+      <c r="T18" s="2">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
       <c r="U18" s="2"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="2">
@@ -1200,27 +2418,31 @@
       <c r="M19" s="2">
         <v>0.71099999999999997</v>
       </c>
-      <c r="N19" s="18">
+      <c r="N19" s="34">
         <v>18.350000000000001</v>
       </c>
       <c r="O19" s="4">
         <v>96.8</v>
       </c>
-      <c r="P19" s="14">
+      <c r="P19" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="48">
         <v>1.8</v>
       </c>
-      <c r="Q19" s="17">
+      <c r="S19" s="49">
         <v>0.95720000000000005</v>
       </c>
-      <c r="R19" s="2">
+      <c r="T19" s="2">
         <v>1.6000000000000001E-4</v>
       </c>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
       <c r="U19" s="2"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="2">
@@ -1257,27 +2479,31 @@
       <c r="M20" s="2">
         <v>0.71099999999999997</v>
       </c>
-      <c r="N20" s="18">
+      <c r="N20" s="34">
         <v>18.399999999999999</v>
       </c>
       <c r="O20" s="4">
         <v>96.8</v>
       </c>
-      <c r="P20" s="14">
+      <c r="P20" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="48">
         <v>1.8</v>
       </c>
-      <c r="Q20" s="17">
+      <c r="S20" s="49">
         <v>0.95725000000000005</v>
       </c>
-      <c r="R20" s="2">
+      <c r="T20" s="2">
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
       <c r="U20" s="2"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="2">
@@ -1314,27 +2540,31 @@
       <c r="M21" s="2">
         <v>0.71099999999999997</v>
       </c>
-      <c r="N21" s="18">
+      <c r="N21" s="34">
         <v>18.45</v>
       </c>
       <c r="O21" s="4">
         <v>96.8</v>
       </c>
-      <c r="P21" s="14">
+      <c r="P21" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="48">
         <v>1.8</v>
       </c>
-      <c r="Q21" s="17">
+      <c r="S21" s="49">
         <v>0.95759000000000005</v>
       </c>
-      <c r="R21" s="2">
+      <c r="T21" s="2">
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
       <c r="U21" s="2"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="2">
@@ -1371,27 +2601,31 @@
       <c r="M22" s="2">
         <v>0.71099999999999997</v>
       </c>
-      <c r="N22" s="18">
+      <c r="N22" s="34">
         <v>18.5</v>
       </c>
       <c r="O22" s="4">
         <v>96.8</v>
       </c>
-      <c r="P22" s="14">
+      <c r="P22" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="48">
         <v>1.8</v>
       </c>
-      <c r="Q22" s="17">
+      <c r="S22" s="49">
         <v>0.95752999999999999</v>
       </c>
-      <c r="R22" s="2">
+      <c r="T22" s="2">
         <v>1.3999999999999999E-4</v>
       </c>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
       <c r="U22" s="2"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="2">
@@ -1428,27 +2662,31 @@
       <c r="M23" s="2">
         <v>0.71099999999999997</v>
       </c>
-      <c r="N23" s="18">
+      <c r="N23" s="34">
         <v>18.55</v>
       </c>
       <c r="O23" s="4">
         <v>96.8</v>
       </c>
-      <c r="P23" s="14">
+      <c r="P23" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="48">
         <v>1.8</v>
       </c>
-      <c r="Q23" s="17">
+      <c r="S23" s="49">
         <v>0.95767000000000002</v>
       </c>
-      <c r="R23" s="2">
+      <c r="T23" s="2">
         <v>1.6000000000000001E-4</v>
       </c>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
       <c r="U23" s="2"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="2">
@@ -1485,27 +2723,31 @@
       <c r="M24" s="2">
         <v>0.71099999999999997</v>
       </c>
-      <c r="N24" s="18">
+      <c r="N24" s="34">
         <v>18.600000000000001</v>
       </c>
       <c r="O24" s="4">
         <v>96.8</v>
       </c>
-      <c r="P24" s="14">
+      <c r="P24" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="48">
         <v>1.8</v>
       </c>
-      <c r="Q24" s="17">
+      <c r="S24" s="49">
         <v>0.95765999999999996</v>
       </c>
-      <c r="R24" s="2">
+      <c r="T24" s="2">
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
       <c r="U24" s="2"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B25" s="2">
@@ -1542,27 +2784,31 @@
       <c r="M25" s="2">
         <v>0.71099999999999997</v>
       </c>
-      <c r="N25" s="18">
+      <c r="N25" s="34">
         <v>18.649999999999999</v>
       </c>
       <c r="O25" s="4">
         <v>96.8</v>
       </c>
-      <c r="P25" s="14">
+      <c r="P25" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="48">
         <v>1.8</v>
       </c>
-      <c r="Q25" s="17">
+      <c r="S25" s="49">
         <v>0.95777000000000001</v>
       </c>
-      <c r="R25" s="2">
+      <c r="T25" s="2">
         <v>1.3999999999999999E-4</v>
       </c>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
       <c r="U25" s="2"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B26" s="2">
@@ -1599,27 +2845,31 @@
       <c r="M26" s="2">
         <v>0.71099999999999997</v>
       </c>
-      <c r="N26" s="18">
+      <c r="N26" s="34">
         <v>18.7</v>
       </c>
       <c r="O26" s="4">
         <v>96.8</v>
       </c>
-      <c r="P26" s="14">
+      <c r="P26" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="48">
         <v>1.8</v>
       </c>
-      <c r="Q26" s="17">
+      <c r="S26" s="49">
         <v>0.95777999999999996</v>
       </c>
-      <c r="R26" s="2">
+      <c r="T26" s="2">
         <v>1.6000000000000001E-4</v>
       </c>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
       <c r="U26" s="2"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B27" s="2">
@@ -1656,27 +2906,31 @@
       <c r="M27" s="2">
         <v>0.71099999999999997</v>
       </c>
-      <c r="N27" s="18">
+      <c r="N27" s="34">
         <v>18.75</v>
       </c>
       <c r="O27" s="4">
         <v>96.8</v>
       </c>
-      <c r="P27" s="14">
+      <c r="P27" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="48">
         <v>1.8</v>
       </c>
-      <c r="Q27" s="17">
+      <c r="S27" s="49">
         <v>0.95796000000000003</v>
       </c>
-      <c r="R27" s="2">
+      <c r="T27" s="2">
         <v>1.3999999999999999E-4</v>
       </c>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
       <c r="U27" s="2"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B28" s="2">
@@ -1713,27 +2967,31 @@
       <c r="M28" s="2">
         <v>0.71099999999999997</v>
       </c>
-      <c r="N28" s="18">
+      <c r="N28" s="34">
         <v>18.8</v>
       </c>
       <c r="O28" s="4">
         <v>96.8</v>
       </c>
-      <c r="P28" s="14">
+      <c r="P28" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="48">
         <v>1.8</v>
       </c>
-      <c r="Q28" s="17">
+      <c r="S28" s="49">
         <v>0.95804</v>
       </c>
-      <c r="R28" s="2">
+      <c r="T28" s="2">
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
       <c r="U28" s="2"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B29" s="2">
@@ -1770,27 +3028,31 @@
       <c r="M29" s="2">
         <v>0.71099999999999997</v>
       </c>
-      <c r="N29" s="18">
+      <c r="N29" s="34">
         <v>18.850000000000001</v>
       </c>
       <c r="O29" s="4">
         <v>96.8</v>
       </c>
-      <c r="P29" s="14">
+      <c r="P29" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="48">
         <v>1.8</v>
       </c>
-      <c r="Q29" s="17">
+      <c r="S29" s="49">
         <v>0.95789999999999997</v>
       </c>
-      <c r="R29" s="2">
+      <c r="T29" s="2">
         <v>1.6000000000000001E-4</v>
       </c>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
       <c r="U29" s="2"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B30" s="2">
@@ -1827,27 +3089,31 @@
       <c r="M30" s="2">
         <v>0.71099999999999997</v>
       </c>
-      <c r="N30" s="18">
+      <c r="N30" s="34">
         <v>18.899999999999999</v>
       </c>
       <c r="O30" s="4">
         <v>96.8</v>
       </c>
-      <c r="P30" s="14">
+      <c r="P30" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="48">
         <v>1.8</v>
       </c>
-      <c r="Q30" s="17">
+      <c r="S30" s="49">
         <v>0.95742000000000005</v>
       </c>
-      <c r="R30" s="2">
+      <c r="T30" s="2">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
       <c r="U30" s="2"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B31" s="2">
@@ -1884,27 +3150,31 @@
       <c r="M31" s="2">
         <v>0.71099999999999997</v>
       </c>
-      <c r="N31" s="18">
+      <c r="N31" s="34">
         <v>18.95</v>
       </c>
       <c r="O31" s="4">
         <v>96.8</v>
       </c>
-      <c r="P31" s="14">
+      <c r="P31" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="48">
         <v>1.8</v>
       </c>
-      <c r="Q31" s="17">
+      <c r="S31" s="49">
         <v>0.95786000000000004</v>
       </c>
-      <c r="R31" s="2">
+      <c r="T31" s="2">
         <v>1.7000000000000001E-4</v>
       </c>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
       <c r="U31" s="2"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B32" s="2">
@@ -1941,27 +3211,31 @@
       <c r="M32" s="2">
         <v>0.71099999999999997</v>
       </c>
-      <c r="N32" s="18">
+      <c r="N32" s="34">
         <v>19</v>
       </c>
       <c r="O32" s="4">
         <v>96.8</v>
       </c>
-      <c r="P32" s="14">
+      <c r="P32" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="48">
         <v>1.8</v>
       </c>
-      <c r="Q32" s="17">
+      <c r="S32" s="49">
         <v>0.95809999999999995</v>
       </c>
-      <c r="R32" s="2">
+      <c r="T32" s="2">
         <v>1.3999999999999999E-4</v>
       </c>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
       <c r="U32" s="2"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B33" s="2">
@@ -1998,27 +3272,31 @@
       <c r="M33" s="2">
         <v>0.71099999999999997</v>
       </c>
-      <c r="N33" s="18">
+      <c r="N33" s="34">
         <v>19.05</v>
       </c>
       <c r="O33" s="4">
         <v>96.8</v>
       </c>
-      <c r="P33" s="14">
+      <c r="P33" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="48">
         <v>1.8</v>
       </c>
-      <c r="Q33" s="17">
+      <c r="S33" s="49">
         <v>0.95791000000000004</v>
       </c>
-      <c r="R33" s="2">
+      <c r="T33" s="2">
         <v>1.6000000000000001E-4</v>
       </c>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
       <c r="U33" s="2"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B34" s="2">
@@ -2055,27 +3333,31 @@
       <c r="M34" s="2">
         <v>0.71099999999999997</v>
       </c>
-      <c r="N34" s="18">
+      <c r="N34" s="34">
         <v>19.100000000000001</v>
       </c>
       <c r="O34" s="4">
         <v>96.8</v>
       </c>
-      <c r="P34" s="14">
+      <c r="P34" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="48">
         <v>1.8</v>
       </c>
-      <c r="Q34" s="17">
+      <c r="S34" s="49">
         <v>0.95825000000000005</v>
       </c>
-      <c r="R34" s="2">
+      <c r="T34" s="2">
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
       <c r="U34" s="2"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B35" s="2">
@@ -2112,27 +3394,31 @@
       <c r="M35" s="2">
         <v>0.71099999999999997</v>
       </c>
-      <c r="N35" s="18">
+      <c r="N35" s="34">
         <v>19.149999999999999</v>
       </c>
       <c r="O35" s="4">
         <v>96.8</v>
       </c>
-      <c r="P35" s="14">
+      <c r="P35" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="48">
         <v>1.8</v>
       </c>
-      <c r="Q35" s="17">
+      <c r="S35" s="49">
         <v>0.95789999999999997</v>
       </c>
-      <c r="R35" s="2">
+      <c r="T35" s="2">
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
       <c r="U35" s="2"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B36" s="2">
@@ -2169,27 +3455,31 @@
       <c r="M36" s="2">
         <v>0.71099999999999997</v>
       </c>
-      <c r="N36" s="18">
+      <c r="N36" s="34">
         <v>19.2</v>
       </c>
       <c r="O36" s="4">
         <v>96.8</v>
       </c>
-      <c r="P36" s="14">
+      <c r="P36" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="48">
         <v>1.8</v>
       </c>
-      <c r="Q36" s="17">
+      <c r="S36" s="49">
         <v>0.95848999999999995</v>
       </c>
-      <c r="R36" s="2">
+      <c r="T36" s="2">
         <v>1.3999999999999999E-4</v>
       </c>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
       <c r="U36" s="2"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B37" s="2">
@@ -2226,85 +3516,1375 @@
       <c r="M37" s="2">
         <v>0.71099999999999997</v>
       </c>
-      <c r="N37" s="18">
+      <c r="N37" s="34">
         <v>19.25</v>
       </c>
       <c r="O37" s="4">
         <v>96.8</v>
       </c>
-      <c r="P37" s="14">
+      <c r="P37" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="48">
         <v>1.8</v>
       </c>
-      <c r="Q37" s="17">
+      <c r="S37" s="49">
         <v>0.95804999999999996</v>
       </c>
-      <c r="R37" s="2">
+      <c r="T37" s="2">
         <v>1.6000000000000001E-4</v>
       </c>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
       <c r="U37" s="2"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="15">
         <v>27</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="16">
         <v>663</v>
       </c>
-      <c r="D38" s="4">
-        <v>5</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4">
+      <c r="D38" s="16">
+        <v>5</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16">
         <v>164</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="16">
         <v>62</v>
       </c>
-      <c r="I38" s="4">
-        <v>8</v>
-      </c>
-      <c r="J38" s="4">
-        <v>9</v>
-      </c>
-      <c r="K38" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="L38" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="M38" s="2">
+      <c r="I38" s="16">
+        <v>8</v>
+      </c>
+      <c r="J38" s="16">
+        <v>9</v>
+      </c>
+      <c r="K38" s="16">
+        <v>5.5</v>
+      </c>
+      <c r="L38" s="16">
+        <v>5.5</v>
+      </c>
+      <c r="M38" s="15">
         <v>0.71099999999999997</v>
       </c>
-      <c r="N38" s="18">
+      <c r="N38" s="35">
         <v>19.3</v>
       </c>
-      <c r="O38" s="4">
+      <c r="O38" s="16">
         <v>96.8</v>
       </c>
-      <c r="P38" s="14">
+      <c r="P38" s="15">
+        <v>20</v>
+      </c>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="50">
         <v>1.8</v>
       </c>
-      <c r="Q38" s="17">
+      <c r="S38" s="51">
         <v>0.95796000000000003</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="15">
         <v>1.7000000000000001E-4</v>
       </c>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
+      <c r="U38" s="15"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="15"/>
+    </row>
+    <row r="39" spans="1:23" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="19">
+        <v>1</v>
+      </c>
+      <c r="C39" s="19">
+        <v>663</v>
+      </c>
+      <c r="D39" s="19">
+        <v>5</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19">
+        <v>164</v>
+      </c>
+      <c r="H39" s="19">
+        <v>62</v>
+      </c>
+      <c r="I39" s="19">
+        <v>8</v>
+      </c>
+      <c r="J39" s="19">
+        <v>9</v>
+      </c>
+      <c r="K39" s="19">
+        <v>5.5</v>
+      </c>
+      <c r="L39" s="19">
+        <v>5.5</v>
+      </c>
+      <c r="M39" s="19">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N39" s="20">
+        <v>19.05</v>
+      </c>
+      <c r="O39" s="19">
+        <v>96.8</v>
+      </c>
+      <c r="P39" s="36">
+        <v>1</v>
+      </c>
+      <c r="R39" s="46">
+        <v>1.8</v>
+      </c>
+      <c r="S39" s="52">
+        <v>0.95840000000000003</v>
+      </c>
+      <c r="T39" s="19">
+        <v>2.5999999999999998E-4</v>
+      </c>
+      <c r="U39" s="19">
+        <v>87.59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="2">
+        <v>2</v>
+      </c>
+      <c r="C40" s="2">
+        <v>663</v>
+      </c>
+      <c r="D40" s="2">
+        <v>5</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2">
+        <v>164</v>
+      </c>
+      <c r="H40" s="2">
+        <v>62</v>
+      </c>
+      <c r="I40" s="2">
+        <v>8</v>
+      </c>
+      <c r="J40" s="2">
+        <v>9</v>
+      </c>
+      <c r="K40" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="L40" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N40" s="12">
+        <v>19.05</v>
+      </c>
+      <c r="O40" s="2">
+        <v>96.8</v>
+      </c>
+      <c r="P40" s="37">
+        <v>5</v>
+      </c>
+      <c r="R40" s="48">
+        <v>1.8</v>
+      </c>
+      <c r="S40" s="53">
+        <v>0.95820000000000005</v>
+      </c>
+      <c r="T40" s="2">
+        <v>2.39999999999999E-4</v>
+      </c>
+      <c r="U40" s="2">
+        <v>87.57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="2">
+        <v>3</v>
+      </c>
+      <c r="C41" s="2">
+        <v>663</v>
+      </c>
+      <c r="D41" s="2">
+        <v>5</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2">
+        <v>164</v>
+      </c>
+      <c r="H41" s="2">
+        <v>62</v>
+      </c>
+      <c r="I41" s="2">
+        <v>8</v>
+      </c>
+      <c r="J41" s="2">
+        <v>9</v>
+      </c>
+      <c r="K41" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="L41" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="M41" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N41" s="12">
+        <v>19.05</v>
+      </c>
+      <c r="O41" s="2">
+        <v>96.8</v>
+      </c>
+      <c r="P41" s="37">
+        <v>10</v>
+      </c>
+      <c r="R41" s="48">
+        <v>1.8</v>
+      </c>
+      <c r="S41" s="53">
+        <v>0.95811999999999997</v>
+      </c>
+      <c r="T41" s="2">
+        <v>2.7999999999999998E-4</v>
+      </c>
+      <c r="U41" s="2">
+        <v>87.58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="2">
+        <v>4</v>
+      </c>
+      <c r="C42" s="2">
+        <v>663</v>
+      </c>
+      <c r="D42" s="2">
+        <v>5</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2">
+        <v>164</v>
+      </c>
+      <c r="H42" s="2">
+        <v>62</v>
+      </c>
+      <c r="I42" s="2">
+        <v>8</v>
+      </c>
+      <c r="J42" s="2">
+        <v>9</v>
+      </c>
+      <c r="K42" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="L42" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="M42" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N42" s="12">
+        <v>19.05</v>
+      </c>
+      <c r="O42" s="2">
+        <v>96.8</v>
+      </c>
+      <c r="P42" s="37">
+        <v>15</v>
+      </c>
+      <c r="R42" s="48">
+        <v>1.8</v>
+      </c>
+      <c r="S42" s="53">
+        <v>0.95831999999999995</v>
+      </c>
+      <c r="T42" s="2">
+        <v>2.7E-4</v>
+      </c>
+      <c r="U42" s="2">
+        <v>87.57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="2">
+        <v>5</v>
+      </c>
+      <c r="C43" s="2">
+        <v>663</v>
+      </c>
+      <c r="D43" s="2">
+        <v>5</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2">
+        <v>164</v>
+      </c>
+      <c r="H43" s="2">
+        <v>62</v>
+      </c>
+      <c r="I43" s="2">
+        <v>8</v>
+      </c>
+      <c r="J43" s="2">
+        <v>9</v>
+      </c>
+      <c r="K43" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="L43" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="M43" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N43" s="12">
+        <v>19.05</v>
+      </c>
+      <c r="O43" s="2">
+        <v>96.8</v>
+      </c>
+      <c r="P43" s="37">
+        <v>20</v>
+      </c>
+      <c r="R43" s="48">
+        <v>1.8</v>
+      </c>
+      <c r="S43" s="53">
+        <v>0.95820000000000005</v>
+      </c>
+      <c r="T43" s="2">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="U43" s="2">
+        <v>87.57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="2">
+        <v>6</v>
+      </c>
+      <c r="C44" s="2">
+        <v>663</v>
+      </c>
+      <c r="D44" s="2">
+        <v>5</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2">
+        <v>164</v>
+      </c>
+      <c r="H44" s="2">
+        <v>62</v>
+      </c>
+      <c r="I44" s="2">
+        <v>8</v>
+      </c>
+      <c r="J44" s="2">
+        <v>9</v>
+      </c>
+      <c r="K44" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="L44" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="M44" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N44" s="12">
+        <v>19.05</v>
+      </c>
+      <c r="O44" s="2">
+        <v>96.8</v>
+      </c>
+      <c r="P44" s="37">
+        <v>25</v>
+      </c>
+      <c r="R44" s="48">
+        <v>1.8</v>
+      </c>
+      <c r="S44" s="53">
+        <v>0.95777999999999996</v>
+      </c>
+      <c r="T44" s="2">
+        <v>2.7E-4</v>
+      </c>
+      <c r="U44" s="2">
+        <v>87.56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="2">
+        <v>7</v>
+      </c>
+      <c r="C45" s="2">
+        <v>663</v>
+      </c>
+      <c r="D45" s="2">
+        <v>5</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2">
+        <v>164</v>
+      </c>
+      <c r="H45" s="2">
+        <v>62</v>
+      </c>
+      <c r="I45" s="2">
+        <v>8</v>
+      </c>
+      <c r="J45" s="2">
+        <v>9</v>
+      </c>
+      <c r="K45" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="L45" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="M45" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N45" s="12">
+        <v>19.05</v>
+      </c>
+      <c r="O45" s="2">
+        <v>96.8</v>
+      </c>
+      <c r="P45" s="37">
+        <v>30</v>
+      </c>
+      <c r="R45" s="48">
+        <v>1.8</v>
+      </c>
+      <c r="S45" s="53">
+        <v>0.95737000000000005</v>
+      </c>
+      <c r="T45" s="2">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="U45" s="2">
+        <v>87.56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="2">
+        <v>8</v>
+      </c>
+      <c r="C46" s="2">
+        <v>663</v>
+      </c>
+      <c r="D46" s="2">
+        <v>5</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2">
+        <v>164</v>
+      </c>
+      <c r="H46" s="2">
+        <v>62</v>
+      </c>
+      <c r="I46" s="2">
+        <v>8</v>
+      </c>
+      <c r="J46" s="2">
+        <v>9</v>
+      </c>
+      <c r="K46" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="L46" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="M46" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N46" s="12">
+        <v>19.05</v>
+      </c>
+      <c r="O46" s="2">
+        <v>96.8</v>
+      </c>
+      <c r="P46" s="37">
+        <v>35</v>
+      </c>
+      <c r="R46" s="48">
+        <v>1.8</v>
+      </c>
+      <c r="S46" s="53">
+        <v>0.95686000000000004</v>
+      </c>
+      <c r="T46" s="2">
+        <v>2.5999999999999998E-4</v>
+      </c>
+      <c r="U46" s="2">
+        <v>87.52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="2">
+        <v>9</v>
+      </c>
+      <c r="C47" s="2">
+        <v>663</v>
+      </c>
+      <c r="D47" s="2">
+        <v>5</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2">
+        <v>164</v>
+      </c>
+      <c r="H47" s="2">
+        <v>62</v>
+      </c>
+      <c r="I47" s="2">
+        <v>8</v>
+      </c>
+      <c r="J47" s="2">
+        <v>9</v>
+      </c>
+      <c r="K47" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="L47" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="M47" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N47" s="12">
+        <v>19.05</v>
+      </c>
+      <c r="O47" s="2">
+        <v>96.8</v>
+      </c>
+      <c r="P47" s="37">
+        <v>40</v>
+      </c>
+      <c r="R47" s="48">
+        <v>1.8</v>
+      </c>
+      <c r="S47" s="53">
+        <v>0.95569000000000004</v>
+      </c>
+      <c r="T47" s="2">
+        <v>2.9E-4</v>
+      </c>
+      <c r="U47" s="2">
+        <v>87.54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" s="2">
+        <v>10</v>
+      </c>
+      <c r="C48" s="2">
+        <v>663</v>
+      </c>
+      <c r="D48" s="2">
+        <v>5</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2">
+        <v>164</v>
+      </c>
+      <c r="H48" s="2">
+        <v>62</v>
+      </c>
+      <c r="I48" s="2">
+        <v>8</v>
+      </c>
+      <c r="J48" s="2">
+        <v>9</v>
+      </c>
+      <c r="K48" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="L48" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="M48" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N48" s="12">
+        <v>19.05</v>
+      </c>
+      <c r="O48" s="2">
+        <v>96.8</v>
+      </c>
+      <c r="P48" s="37">
+        <v>45</v>
+      </c>
+      <c r="R48" s="48">
+        <v>1.8</v>
+      </c>
+      <c r="S48" s="53">
+        <v>0.95553999999999994</v>
+      </c>
+      <c r="T48" s="2">
+        <v>2.29999999999999E-4</v>
+      </c>
+      <c r="U48" s="2">
+        <v>87.47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="2">
+        <v>11</v>
+      </c>
+      <c r="C49" s="2">
+        <v>663</v>
+      </c>
+      <c r="D49" s="2">
+        <v>5</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2">
+        <v>164</v>
+      </c>
+      <c r="H49" s="2">
+        <v>62</v>
+      </c>
+      <c r="I49" s="2">
+        <v>8</v>
+      </c>
+      <c r="J49" s="2">
+        <v>9</v>
+      </c>
+      <c r="K49" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="L49" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="M49" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N49" s="12">
+        <v>19.05</v>
+      </c>
+      <c r="O49" s="2">
+        <v>96.8</v>
+      </c>
+      <c r="P49" s="37">
+        <v>50</v>
+      </c>
+      <c r="R49" s="48">
+        <v>1.8</v>
+      </c>
+      <c r="S49" s="53">
+        <v>0.95496999999999999</v>
+      </c>
+      <c r="T49" s="2">
+        <v>2.7E-4</v>
+      </c>
+      <c r="U49" s="2">
+        <v>87.49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" s="2">
+        <v>12</v>
+      </c>
+      <c r="C50" s="2">
+        <v>663</v>
+      </c>
+      <c r="D50" s="2">
+        <v>5</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2">
+        <v>164</v>
+      </c>
+      <c r="H50" s="2">
+        <v>62</v>
+      </c>
+      <c r="I50" s="2">
+        <v>8</v>
+      </c>
+      <c r="J50" s="2">
+        <v>9</v>
+      </c>
+      <c r="K50" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="L50" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="M50" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N50" s="12">
+        <v>19.05</v>
+      </c>
+      <c r="O50" s="2">
+        <v>96.8</v>
+      </c>
+      <c r="P50" s="37">
+        <v>55</v>
+      </c>
+      <c r="R50" s="48">
+        <v>1.8</v>
+      </c>
+      <c r="S50" s="53">
+        <v>0.95491999999999999</v>
+      </c>
+      <c r="T50" s="2">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="U50" s="2">
+        <v>87.48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" s="2">
+        <v>13</v>
+      </c>
+      <c r="C51" s="2">
+        <v>663</v>
+      </c>
+      <c r="D51" s="2">
+        <v>5</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2">
+        <v>164</v>
+      </c>
+      <c r="H51" s="2">
+        <v>62</v>
+      </c>
+      <c r="I51" s="2">
+        <v>8</v>
+      </c>
+      <c r="J51" s="2">
+        <v>9</v>
+      </c>
+      <c r="K51" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="L51" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="M51" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N51" s="12">
+        <v>19.05</v>
+      </c>
+      <c r="O51" s="2">
+        <v>96.8</v>
+      </c>
+      <c r="P51" s="37">
+        <v>60</v>
+      </c>
+      <c r="R51" s="48">
+        <v>1.8</v>
+      </c>
+      <c r="S51" s="53">
+        <v>0.95525000000000004</v>
+      </c>
+      <c r="T51" s="2">
+        <v>2.7E-4</v>
+      </c>
+      <c r="U51" s="2">
+        <v>87.46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" s="2">
+        <v>14</v>
+      </c>
+      <c r="C52" s="2">
+        <v>663</v>
+      </c>
+      <c r="D52" s="2">
+        <v>5</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2">
+        <v>164</v>
+      </c>
+      <c r="H52" s="2">
+        <v>62</v>
+      </c>
+      <c r="I52" s="2">
+        <v>8</v>
+      </c>
+      <c r="J52" s="2">
+        <v>9</v>
+      </c>
+      <c r="K52" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="L52" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="M52" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N52" s="12">
+        <v>19.05</v>
+      </c>
+      <c r="O52" s="2">
+        <v>96.8</v>
+      </c>
+      <c r="P52" s="37">
+        <v>65</v>
+      </c>
+      <c r="R52" s="48">
+        <v>1.8</v>
+      </c>
+      <c r="S52" s="53">
+        <v>0.95250999999999997</v>
+      </c>
+      <c r="T52" s="2">
+        <v>2.5999999999999998E-4</v>
+      </c>
+      <c r="U52" s="2">
+        <v>87.42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" s="2">
+        <v>15</v>
+      </c>
+      <c r="C53" s="2">
+        <v>663</v>
+      </c>
+      <c r="D53" s="2">
+        <v>5</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2">
+        <v>164</v>
+      </c>
+      <c r="H53" s="2">
+        <v>62</v>
+      </c>
+      <c r="I53" s="2">
+        <v>8</v>
+      </c>
+      <c r="J53" s="2">
+        <v>9</v>
+      </c>
+      <c r="K53" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="L53" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="M53" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N53" s="12">
+        <v>19.05</v>
+      </c>
+      <c r="O53" s="2">
+        <v>96.8</v>
+      </c>
+      <c r="P53" s="37">
+        <v>70</v>
+      </c>
+      <c r="R53" s="48">
+        <v>1.8</v>
+      </c>
+      <c r="S53" s="53">
+        <v>0.95240999999999998</v>
+      </c>
+      <c r="T53" s="2">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="U53" s="2">
+        <v>87.39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" s="2">
+        <v>16</v>
+      </c>
+      <c r="C54" s="2">
+        <v>663</v>
+      </c>
+      <c r="D54" s="2">
+        <v>5</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2">
+        <v>164</v>
+      </c>
+      <c r="H54" s="2">
+        <v>62</v>
+      </c>
+      <c r="I54" s="2">
+        <v>8</v>
+      </c>
+      <c r="J54" s="2">
+        <v>9</v>
+      </c>
+      <c r="K54" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="L54" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="M54" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N54" s="12">
+        <v>19.05</v>
+      </c>
+      <c r="O54" s="2">
+        <v>96.8</v>
+      </c>
+      <c r="P54" s="37">
+        <v>75</v>
+      </c>
+      <c r="R54" s="48">
+        <v>1.8</v>
+      </c>
+      <c r="S54" s="53">
+        <v>0.95238999999999996</v>
+      </c>
+      <c r="T54" s="2">
+        <v>2.5999999999999998E-4</v>
+      </c>
+      <c r="U54" s="2">
+        <v>87.38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" s="2">
+        <v>17</v>
+      </c>
+      <c r="C55" s="2">
+        <v>663</v>
+      </c>
+      <c r="D55" s="2">
+        <v>5</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2">
+        <v>164</v>
+      </c>
+      <c r="H55" s="2">
+        <v>62</v>
+      </c>
+      <c r="I55" s="2">
+        <v>8</v>
+      </c>
+      <c r="J55" s="2">
+        <v>9</v>
+      </c>
+      <c r="K55" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="L55" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="M55" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N55" s="12">
+        <v>19.05</v>
+      </c>
+      <c r="O55" s="2">
+        <v>96.8</v>
+      </c>
+      <c r="P55" s="37">
+        <v>80</v>
+      </c>
+      <c r="R55" s="48">
+        <v>1.8</v>
+      </c>
+      <c r="S55" s="53">
+        <v>0.95155999999999996</v>
+      </c>
+      <c r="T55" s="2">
+        <v>2.7E-4</v>
+      </c>
+      <c r="U55" s="2">
+        <v>87.37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" s="2">
+        <v>18</v>
+      </c>
+      <c r="C56" s="2">
+        <v>663</v>
+      </c>
+      <c r="D56" s="2">
+        <v>5</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2">
+        <v>164</v>
+      </c>
+      <c r="H56" s="2">
+        <v>62</v>
+      </c>
+      <c r="I56" s="2">
+        <v>8</v>
+      </c>
+      <c r="J56" s="2">
+        <v>9</v>
+      </c>
+      <c r="K56" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="L56" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="M56" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N56" s="12">
+        <v>19.05</v>
+      </c>
+      <c r="O56" s="2">
+        <v>96.8</v>
+      </c>
+      <c r="P56" s="37">
+        <v>85</v>
+      </c>
+      <c r="R56" s="48">
+        <v>1.8</v>
+      </c>
+      <c r="S56" s="53">
+        <v>0.95087999999999995</v>
+      </c>
+      <c r="T56" s="2">
+        <v>2.5999999999999998E-4</v>
+      </c>
+      <c r="U56" s="2">
+        <v>87.34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" s="2">
+        <v>19</v>
+      </c>
+      <c r="C57" s="2">
+        <v>663</v>
+      </c>
+      <c r="D57" s="2">
+        <v>5</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2">
+        <v>164</v>
+      </c>
+      <c r="H57" s="2">
+        <v>62</v>
+      </c>
+      <c r="I57" s="2">
+        <v>8</v>
+      </c>
+      <c r="J57" s="2">
+        <v>9</v>
+      </c>
+      <c r="K57" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="L57" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="M57" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N57" s="12">
+        <v>19.05</v>
+      </c>
+      <c r="O57" s="2">
+        <v>96.8</v>
+      </c>
+      <c r="P57" s="37">
+        <v>90</v>
+      </c>
+      <c r="R57" s="48">
+        <v>1.8</v>
+      </c>
+      <c r="S57" s="53">
+        <v>0.94911999999999996</v>
+      </c>
+      <c r="T57" s="2">
+        <v>2.5999999999999998E-4</v>
+      </c>
+      <c r="U57" s="2">
+        <v>87.32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" s="2">
+        <v>20</v>
+      </c>
+      <c r="C58" s="2">
+        <v>663</v>
+      </c>
+      <c r="D58" s="2">
+        <v>5</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2">
+        <v>164</v>
+      </c>
+      <c r="H58" s="2">
+        <v>62</v>
+      </c>
+      <c r="I58" s="2">
+        <v>8</v>
+      </c>
+      <c r="J58" s="2">
+        <v>9</v>
+      </c>
+      <c r="K58" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="L58" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="M58" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N58" s="12">
+        <v>19.05</v>
+      </c>
+      <c r="O58" s="2">
+        <v>96.8</v>
+      </c>
+      <c r="P58" s="37">
+        <v>95</v>
+      </c>
+      <c r="R58" s="48">
+        <v>1.8</v>
+      </c>
+      <c r="S58" s="53">
+        <v>0.94911000000000001</v>
+      </c>
+      <c r="T58" s="2">
+        <v>2.9E-4</v>
+      </c>
+      <c r="U58" s="2">
+        <v>87.28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" s="2">
+        <v>20</v>
+      </c>
+      <c r="C59" s="2">
+        <v>663</v>
+      </c>
+      <c r="D59" s="2">
+        <v>5</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2">
+        <v>164</v>
+      </c>
+      <c r="H59" s="2">
+        <v>62</v>
+      </c>
+      <c r="I59" s="2">
+        <v>8</v>
+      </c>
+      <c r="J59" s="2">
+        <v>9</v>
+      </c>
+      <c r="K59" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="L59" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="M59" s="2">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N59" s="12">
+        <v>19.05</v>
+      </c>
+      <c r="O59" s="2">
+        <v>96.8</v>
+      </c>
+      <c r="P59" s="37">
+        <v>99</v>
+      </c>
+      <c r="R59" s="48">
+        <v>1.8</v>
+      </c>
+      <c r="S59" s="53">
+        <v>0.94823000000000002</v>
+      </c>
+      <c r="T59" s="2">
+        <v>2.7999999999999998E-4</v>
+      </c>
+      <c r="U59" s="2">
+        <v>87.26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R60" s="48"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R61" s="48"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R62" s="48"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R63" s="48"/>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R64" s="48"/>
+    </row>
+    <row r="65" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R65" s="48"/>
+    </row>
+    <row r="66" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R66" s="48"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/HaigerlochResults_ENDF8.xlsx
+++ b/HaigerlochResults_ENDF8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MCNP6\facilities\haigerloch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6F6BB9-9966-490F-BABA-9033ADC3B536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F50DE6-C67D-410A-8B71-0AB71ACA9187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{DC12915E-B1A7-564D-949D-4967E0B731EC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="65">
   <si>
     <t>-</t>
   </si>
@@ -228,7 +228,7 @@
     <t>increase # cubes per chain but keep tank dimensions</t>
   </si>
   <si>
-    <t>GA</t>
+    <t>6, 12, 16, 20, 24, 30</t>
   </si>
 </sst>
 </file>
@@ -3265,9 +3265,9 @@
   <dimension ref="A3:X131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="14" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="14" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="P5" sqref="P5"/>
+      <selection pane="bottomLeft" activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9537,7 +9537,7 @@
         <v>3</v>
       </c>
       <c r="C125" s="1">
-        <f t="shared" ref="C125:C130" si="2">(6+12+16+20+24)/2*(K125+L125)</f>
+        <f t="shared" ref="C125:C131" si="2">(6+12+16+20+24)/2*(K125+L125)</f>
         <v>819</v>
       </c>
       <c r="D125" s="1">
@@ -9909,10 +9909,41 @@
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B131" s="1">
         <v>1</v>
+      </c>
+      <c r="C131" s="1">
+        <f>(6+12+16+20+24+30)/2*(K131+L131)</f>
+        <v>1134</v>
+      </c>
+      <c r="D131" s="1">
+        <v>5</v>
+      </c>
+      <c r="E131" s="1">
+        <v>100</v>
+      </c>
+      <c r="F131" s="1">
+        <v>6</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I131" s="1">
+        <v>119.8</v>
+      </c>
+      <c r="J131" s="1">
+        <v>62</v>
+      </c>
+      <c r="K131" s="1">
+        <v>11</v>
+      </c>
+      <c r="L131" s="1">
+        <v>10</v>
+      </c>
+      <c r="M131" s="1">
+        <v>4.2</v>
       </c>
     </row>
   </sheetData>
